--- a/biology/Botanique/Momordica/Momordica.xlsx
+++ b/biology/Botanique/Momordica/Momordica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Momordica est un genre de plantes à fleurs de la famille des Cucurbitaceae.
 Une de ses espèces la plus connue est la margose, concombre amer ou momordique (Momordica charantia). Les fruits de Momordica cochinchinensis, Momordica dioica et Momordica grosvenorii sont également cultivés pour l'alimentation humaine mais sont de moindre importance commerciale.
@@ -512,9 +524,11 @@
           <t>Liste des espèces, variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (11 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 septembre 2017) :
 Momordica angolensis R. Fernandes
 Momordica angustisepala Harms
 Momordica anigosantha Hook. fil.
@@ -564,7 +578,7 @@
 Momordica subangulata Bl.
 Momordica trifoliolata Hook. fil.
 Momordica welwitschii Hook. fil.
-Selon GRIN            (11 septembre 2017)[3] :
+Selon GRIN            (11 septembre 2017) :
 Momordica angustisepala Harms
 Momordica balsamina L.
 Momordica boivinii Baill.
@@ -581,12 +595,12 @@
 Momordica sahyadrica Kattuk. &amp; V. T. Antony
 Momordica subangulata Blume
 Momordica trifoliolata Hook. f.
-Selon ITIS      (11 septembre 2017)[4] :
+Selon ITIS      (11 septembre 2017) :
 Momordica balsamina L.
 Momordica charantia L.
 Momordica cochinchinensis (Lour.) Spreng.
 Momordica dioica Roxb. ex Willd.
-Selon NCBI  (11 septembre 2017)[5] :
+Selon NCBI  (11 septembre 2017) :
 Momordica angolensis
 Momordica angustisepala
 Momordica anigosantha
@@ -644,7 +658,7 @@
 Momordica trifolia
 Momordica trifoliolata
 Momordica welwitschii
-Selon The Plant List            (11 septembre 2017)[6] :
+Selon The Plant List            (11 septembre 2017) :
 Momordica angolensis R.Fern.
 Momordica angustisepala Harms
 Momordica anigosantha Hook. f.
@@ -681,7 +695,7 @@
 Momordica subangulata Blume
 Momordica trifoliolata Hook. f.
 Momordica welwitschii Hook.f.
-Selon Tropicos                                           (11 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Momordica adoensis Hochst. ex A. Rich.
 Momordica affinis De Wild.
 Momordica angolensis R. Fern.
